--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFD935-B232-435A-B4DE-D12F9F97A44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24399268-614F-43CD-9996-A4C95829ECE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,28 @@
     <sheet name="파손" sheetId="5" r:id="rId5"/>
     <sheet name="배송불만" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>주차별</t>
   </si>
@@ -55,6 +66,10 @@
   </si>
   <si>
     <t>19w</t>
+  </si>
+  <si>
+    <t>20w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,6 +470,23 @@
       </c>
       <c r="E4">
         <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>248</v>
+      </c>
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -465,343 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>367</v>
-      </c>
-      <c r="C2">
-        <v>210</v>
-      </c>
-      <c r="D2">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>338</v>
-      </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>326</v>
-      </c>
-      <c r="C4">
-        <v>172</v>
-      </c>
-      <c r="D4">
-        <v>53</v>
-      </c>
-      <c r="E4">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>181</v>
-      </c>
-      <c r="C2">
-        <v>95</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>195</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>201</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -831,16 +527,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -848,16 +544,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,6 +561,410 @@
         <v>7</v>
       </c>
       <c r="B4">
+        <v>326</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>268</v>
+      </c>
+      <c r="C5">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>181</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>195</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
@@ -875,6 +975,23 @@
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24399268-614F-43CD-9996-A4C95829ECE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E44E7B-A274-4A21-9D9F-5BE6EA18DF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견고함" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>주차별</t>
   </si>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>20w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,310 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>351</v>
-      </c>
-      <c r="C2">
-        <v>262</v>
-      </c>
-      <c r="D2">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>241</v>
-      </c>
-      <c r="C3">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>399</v>
-      </c>
-      <c r="C4">
-        <v>268</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>248</v>
-      </c>
-      <c r="C5">
-        <v>230</v>
-      </c>
-      <c r="D5">
-        <v>88</v>
-      </c>
-      <c r="E5">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>367</v>
-      </c>
-      <c r="C2">
-        <v>210</v>
-      </c>
-      <c r="D2">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>338</v>
-      </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>326</v>
-      </c>
-      <c r="C4">
-        <v>172</v>
-      </c>
-      <c r="D4">
-        <v>53</v>
-      </c>
-      <c r="E4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>268</v>
-      </c>
-      <c r="C5">
-        <v>178</v>
-      </c>
-      <c r="D5">
-        <v>59</v>
-      </c>
-      <c r="E5">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>181</v>
-      </c>
-      <c r="C2">
-        <v>95</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>195</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>201</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5">
-        <v>95</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -729,16 +430,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,16 +447,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,16 +464,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,16 +481,33 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>193</v>
+      </c>
+      <c r="C6">
+        <v>158</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -798,110 +516,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -931,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,16 +565,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,16 +582,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,16 +599,505 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>184</v>
+      </c>
+      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>181</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>195</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E44E7B-A274-4A21-9D9F-5BE6EA18DF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CDB04-2F88-4376-8F2A-82C36ACB490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견고함" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>주차별</t>
   </si>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>21w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,6 +512,23 @@
       </c>
       <c r="E6">
         <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -518,10 +539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,6 +647,23 @@
       </c>
       <c r="E6">
         <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,6 +782,23 @@
       </c>
       <c r="E6">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -754,10 +809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,6 +917,23 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +944,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,6 +1052,23 @@
       </c>
       <c r="E6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1100,6 +1189,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CDB04-2F88-4376-8F2A-82C36ACB490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6C75A-2199-4C82-9579-9B13A7F91004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견고함" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>주차별</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>22w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,6 +533,23 @@
       </c>
       <c r="E7">
         <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>403</v>
+      </c>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -539,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,6 +685,23 @@
       </c>
       <c r="E7">
         <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>316</v>
+      </c>
+      <c r="C8">
+        <v>245</v>
+      </c>
+      <c r="D8">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +712,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>181</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>195</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -704,16 +1198,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,16 +1215,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -755,16 +1249,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -789,411 +1283,6 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>153</v>
-      </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
@@ -1203,6 +1292,23 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6C75A-2199-4C82-9579-9B13A7F91004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFB149-EDF6-4C04-A331-ABDE2D76C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견고함" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
   <si>
     <t>주차별</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>23w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,6 +554,23 @@
       </c>
       <c r="E8">
         <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>410</v>
+      </c>
+      <c r="C9">
+        <v>199</v>
+      </c>
+      <c r="D9">
+        <v>91</v>
+      </c>
+      <c r="E9">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -560,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,6 +723,23 @@
       </c>
       <c r="E8">
         <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>378</v>
+      </c>
+      <c r="C9">
+        <v>206</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,6 +892,23 @@
       </c>
       <c r="E8">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>191</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,6 +1061,23 @@
       </c>
       <c r="E8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,6 +1230,23 @@
       </c>
       <c r="E8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1168,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1401,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFB149-EDF6-4C04-A331-ABDE2D76C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311CF8A-0857-46C9-AB33-F409EA6EFEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견고함" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>주차별</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>24w</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25w</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,6 +574,23 @@
       </c>
       <c r="E9">
         <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>365</v>
+      </c>
+      <c r="C10">
+        <v>242</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,6 +760,23 @@
       </c>
       <c r="E9">
         <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>236</v>
+      </c>
+      <c r="C10">
+        <v>215</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,6 +946,23 @@
       </c>
       <c r="E9">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>201</v>
+      </c>
+      <c r="C10">
+        <v>171</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,6 +1131,23 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
@@ -1088,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1247,6 +1318,23 @@
       </c>
       <c r="E9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1506,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -1,61 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311CF8A-0857-46C9-AB33-F409EA6EFEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A12DE-E6A7-40C4-A10E-ABF446E07D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38835" yWindow="1980" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="견고함" sheetId="1" r:id="rId1"/>
-    <sheet name="조립용이성" sheetId="2" r:id="rId2"/>
-    <sheet name="디자인" sheetId="3" r:id="rId3"/>
-    <sheet name="누락" sheetId="4" r:id="rId4"/>
-    <sheet name="파손" sheetId="5" r:id="rId5"/>
-    <sheet name="배송불만" sheetId="6" r:id="rId6"/>
+    <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
+    <sheet name="스피드랙" sheetId="4" r:id="rId2"/>
+    <sheet name="슈랙" sheetId="2" r:id="rId3"/>
+    <sheet name="피피랙" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>주차별</t>
-  </si>
-  <si>
-    <t>홈던트하우스</t>
-  </si>
-  <si>
-    <t>스피드랙</t>
-  </si>
-  <si>
-    <t>슈랙</t>
-  </si>
-  <si>
-    <t>피피랙</t>
   </si>
   <si>
     <t>17w</t>
@@ -65,6 +40,30 @@
     <t>18w</t>
   </si>
   <si>
+    <t>견고함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립용이성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송불만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>19w</t>
   </si>
   <si>
@@ -89,6 +88,21 @@
   </si>
   <si>
     <t>25w</t>
+  </si>
+  <si>
+    <t>20w</t>
+  </si>
+  <si>
+    <t>21w</t>
+  </si>
+  <si>
+    <t>22w</t>
+  </si>
+  <si>
+    <t>23w</t>
+  </si>
+  <si>
+    <t>24w</t>
   </si>
 </sst>
 </file>
@@ -139,7 +153,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BA74A46D-72C6-43E8-AB22-3E4F14BAAE77}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2125DAA6-D992-4FC7-BEDB-7DA3904CF665}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,182 +429,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>351</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="E2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>241</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="E3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>399</v>
       </c>
       <c r="C4">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="E4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>248</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="E5">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>193</v>
       </c>
       <c r="C6">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>246</v>
       </c>
       <c r="C7">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>403</v>
       </c>
       <c r="C8">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="D8">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="E8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>410</v>
       </c>
       <c r="C9">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="E9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>365</v>
       </c>
       <c r="C10">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="E10">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -600,183 +674,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A04640-FF4D-4A59-9DC8-A8CDB27AB1B5}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="C2">
         <v>210</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>128</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>172</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>178</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>235</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="E6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>169</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="C8">
         <v>245</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>378</v>
+        <v>199</v>
       </c>
       <c r="C9">
         <v>206</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E9">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C10">
         <v>215</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -786,183 +920,243 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAEE58-B7A2-41C7-B71D-022C847684C2}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>36</v>
       </c>
       <c r="E2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>39</v>
       </c>
       <c r="E4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>52</v>
       </c>
       <c r="E6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="C8">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>71</v>
       </c>
       <c r="E8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>57</v>
       </c>
       <c r="E9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>48</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -972,559 +1166,251 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FB3A3-1656-4610-8976-F52A6336AAD6}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>167</v>
+      </c>
+      <c r="C2">
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD06B6-4CDA-4EFE-B8F3-18366FC72336}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CDD1F-2E61-4D2B-B2A2-123475173C28}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/topic.xlsx
+++ b/topic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A12DE-E6A7-40C4-A10E-ABF446E07D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DC0BE-A1E9-48B5-967F-8E23BEC6C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38835" yWindow="1980" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="슈랙" sheetId="2" r:id="rId3"/>
     <sheet name="피피랙" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>주차별</t>
   </si>
@@ -103,6 +114,13 @@
   </si>
   <si>
     <t>24w</t>
+  </si>
+  <si>
+    <t>26w</t>
+  </si>
+  <si>
+    <t>26w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,6 +683,29 @@
       </c>
       <c r="G10">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>328</v>
+      </c>
+      <c r="C11">
+        <v>290</v>
+      </c>
+      <c r="D11">
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -913,6 +954,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,10 +985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,6 +1220,29 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
     </row>
@@ -1167,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,6 +1495,29 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DC0BE-A1E9-48B5-967F-8E23BEC6C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192FE7B-FE56-4634-8B94-62E475DDD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>주차별</t>
   </si>
@@ -120,6 +120,13 @@
   </si>
   <si>
     <t>26w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27w</t>
+  </si>
+  <si>
+    <t>27w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,6 +713,29 @@
       </c>
       <c r="G11">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>291</v>
+      </c>
+      <c r="C12">
+        <v>306</v>
+      </c>
+      <c r="D12">
+        <v>160</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,6 +1005,29 @@
       </c>
       <c r="G11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>231</v>
+      </c>
+      <c r="C12">
+        <v>218</v>
+      </c>
+      <c r="D12">
+        <v>143</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,6 +1297,29 @@
       </c>
       <c r="G11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1518,6 +1594,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192FE7B-FE56-4634-8B94-62E475DDD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394085B-43FC-4930-A0EA-20EC499032F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>주차별</t>
   </si>
@@ -127,6 +127,13 @@
   </si>
   <si>
     <t>27w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28w</t>
+  </si>
+  <si>
+    <t>28w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,6 +743,29 @@
       </c>
       <c r="G12">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>285</v>
+      </c>
+      <c r="C13">
+        <v>291</v>
+      </c>
+      <c r="D13">
+        <v>187</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -746,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,6 +1058,29 @@
       </c>
       <c r="G12">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>139</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1320,6 +1373,29 @@
       </c>
       <c r="G12">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1330,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1617,6 +1693,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394085B-43FC-4930-A0EA-20EC499032F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF134E2-0C70-4807-AB9E-4616070DAD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>주차별</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>28w</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29w</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,6 +769,29 @@
       </c>
       <c r="G13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>255</v>
+      </c>
+      <c r="C14">
+        <v>262</v>
+      </c>
+      <c r="D14">
+        <v>147</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,6 +1107,29 @@
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,6 +1444,29 @@
         <v>2</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
@@ -1406,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1716,6 +1788,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF134E2-0C70-4807-AB9E-4616070DAD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AAA3BC-909D-448A-BCA2-C69FBCF77876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>주차별</t>
   </si>
@@ -138,6 +138,13 @@
   </si>
   <si>
     <t>29w</t>
+  </si>
+  <si>
+    <t>30w</t>
+  </si>
+  <si>
+    <t>29w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,6 +799,29 @@
       </c>
       <c r="G14">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>242</v>
+      </c>
+      <c r="C15">
+        <v>194</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,6 +1160,29 @@
       </c>
       <c r="G14">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>187</v>
+      </c>
+      <c r="C15">
+        <v>162</v>
+      </c>
+      <c r="D15">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1140,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1468,6 +1521,29 @@
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1478,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1866,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -1809,6 +1885,29 @@
       </c>
       <c r="G14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AAA3BC-909D-448A-BCA2-C69FBCF77876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D206A2-AA99-4063-84D8-2E2CA709DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>주차별</t>
   </si>
@@ -144,6 +144,13 @@
   </si>
   <si>
     <t>29w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31w</t>
+  </si>
+  <si>
+    <t>31w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +168,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -187,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -471,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -822,6 +838,29 @@
       </c>
       <c r="G15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+      <c r="C16">
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>163</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1183,6 +1222,29 @@
       </c>
       <c r="G15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>177</v>
+      </c>
+      <c r="C16">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1606,29 @@
       </c>
       <c r="G15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1910,6 +1995,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D206A2-AA99-4063-84D8-2E2CA709DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D0AE0-F6B7-4836-8240-C264C5656CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>주차별</t>
   </si>
@@ -151,6 +151,13 @@
   </si>
   <si>
     <t>31w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32w</t>
+  </si>
+  <si>
+    <t>32w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,6 +868,29 @@
       </c>
       <c r="G16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>198</v>
+      </c>
+      <c r="C17">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>169</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1275,29 @@
       </c>
       <c r="G16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>107</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1255,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1629,6 +1682,29 @@
       </c>
       <c r="G16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2018,6 +2094,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D0AE0-F6B7-4836-8240-C264C5656CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4CD75-C7BB-47AC-8D77-4BBFE784A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>주차별</t>
   </si>
@@ -159,6 +159,9 @@
   <si>
     <t>32w</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33w</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,6 +894,29 @@
       </c>
       <c r="G17">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>281</v>
+      </c>
+      <c r="C18">
+        <v>152</v>
+      </c>
+      <c r="D18">
+        <v>124</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -901,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,6 +1324,29 @@
       </c>
       <c r="G17">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>106</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1308,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1704,6 +1753,29 @@
         <v>3</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
@@ -1715,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2117,6 +2189,29 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4CD75-C7BB-47AC-8D77-4BBFE784A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C7B03-10D4-4FA3-9BD7-FEF0DB245307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>주차별</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>33w</t>
+  </si>
+  <si>
+    <t>34w</t>
+  </si>
+  <si>
+    <t>35w</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,6 +923,52 @@
       </c>
       <c r="G18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>369</v>
+      </c>
+      <c r="C19">
+        <v>184</v>
+      </c>
+      <c r="D19">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>337</v>
+      </c>
+      <c r="C20">
+        <v>223</v>
+      </c>
+      <c r="D20">
+        <v>186</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,6 +1399,52 @@
       </c>
       <c r="G18">
         <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>310</v>
+      </c>
+      <c r="C19">
+        <v>220</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>255</v>
+      </c>
+      <c r="C20">
+        <v>202</v>
+      </c>
+      <c r="D20">
+        <v>165</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1357,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1777,6 +1875,52 @@
       </c>
       <c r="G18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2212,6 +2356,52 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C7B03-10D4-4FA3-9BD7-FEF0DB245307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0406A4EA-3228-4DF1-B351-E85592601D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>주차별</t>
   </si>
@@ -168,6 +168,13 @@
   </si>
   <si>
     <t>35w</t>
+  </si>
+  <si>
+    <t>36w</t>
+  </si>
+  <si>
+    <t>36w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -503,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,6 +975,29 @@
         <v>7</v>
       </c>
       <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>259</v>
+      </c>
+      <c r="C21">
+        <v>204</v>
+      </c>
+      <c r="D21">
+        <v>167</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
     </row>
@@ -979,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1445,6 +1475,29 @@
       </c>
       <c r="G20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>313</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,6 +1974,29 @@
       </c>
       <c r="G20">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1931,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2402,6 +2478,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0406A4EA-3228-4DF1-B351-E85592601D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24659E-D34E-4EB2-877F-E188EBBC76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈던트하우스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>주차별</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>36w</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37w</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -998,6 +1001,29 @@
         <v>7</v>
       </c>
       <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>213</v>
+      </c>
+      <c r="C22">
+        <v>186</v>
+      </c>
+      <c r="D22">
+        <v>159</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
     </row>
@@ -1009,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,6 +1523,29 @@
         <v>12</v>
       </c>
       <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>286</v>
+      </c>
+      <c r="C22">
+        <v>204</v>
+      </c>
+      <c r="D22">
+        <v>148</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
         <v>7</v>
       </c>
     </row>
@@ -1508,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,6 +2046,29 @@
       </c>
       <c r="G21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2501,6 +2573,29 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topic.xlsx
+++ b/topic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24659E-D34E-4EB2-877F-E188EBBC76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A0C725-655A-4C8E-8EE1-129FFB2D5245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>주차별</t>
   </si>
@@ -178,6 +178,13 @@
   </si>
   <si>
     <t>37w</t>
+  </si>
+  <si>
+    <t>38w</t>
+  </si>
+  <si>
+    <t>38w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,6 +1031,29 @@
         <v>6</v>
       </c>
       <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>198</v>
+      </c>
+      <c r="C23">
+        <v>163</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
     </row>
@@ -1035,7 +1065,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5632792-F240-4133-9C56-2453E692233B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>268</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="D6">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>217</v>
+      </c>
+      <c r="C7">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>232</v>
+      </c>
+      <c r="C8">
+        <v>245</v>
+      </c>
+      <c r="D8">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>199</v>
+      </c>
+      <c r="C9">
+        <v>206</v>
+      </c>
+      <c r="D9">
+        <v>132</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>215</v>
+      </c>
+      <c r="D10">
+        <v>171</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>231</v>
+      </c>
+      <c r="C12">
+        <v>218</v>
+      </c>
+      <c r="D12">
+        <v>143</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>139</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>187</v>
+      </c>
+      <c r="C15">
+        <v>162</v>
+      </c>
+      <c r="D15">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>177</v>
+      </c>
+      <c r="C16">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>107</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>106</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>310</v>
+      </c>
+      <c r="C19">
+        <v>220</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>255</v>
+      </c>
+      <c r="C20">
+        <v>202</v>
+      </c>
+      <c r="D20">
+        <v>165</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>313</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>286</v>
+      </c>
+      <c r="C22">
+        <v>204</v>
+      </c>
+      <c r="D22">
+        <v>148</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>170</v>
+      </c>
+      <c r="C23">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1071,22 +1646,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,22 +1669,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,42 +1692,42 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1160,94 +1735,94 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="C8">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,45 +1830,45 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1301,19 +1876,19 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1321,22 +1896,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1347,22 +1922,22 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="C14">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,19 +1945,19 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1390,22 +1965,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1413,25 +1988,25 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17">
         <v>32</v>
       </c>
-      <c r="B17">
-        <v>175</v>
-      </c>
-      <c r="C17">
-        <v>180</v>
-      </c>
       <c r="D17">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,22 +2014,22 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,22 +2037,22 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1485,45 +2060,45 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>313</v>
+        <v>117</v>
       </c>
       <c r="C21">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1531,528 +2106,6 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>286</v>
-      </c>
-      <c r="C22">
-        <v>204</v>
-      </c>
-      <c r="D22">
-        <v>148</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520AFC5-0EBF-43B2-BFC9-154A5E04AC75}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>94</v>
-      </c>
-      <c r="C2">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>88</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>115</v>
-      </c>
-      <c r="C6">
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>95</v>
-      </c>
-      <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>114</v>
-      </c>
-      <c r="C8">
-        <v>82</v>
-      </c>
-      <c r="D8">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>91</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>57</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>84</v>
-      </c>
-      <c r="C12">
-        <v>63</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>63</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>73</v>
-      </c>
-      <c r="C15">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>84</v>
-      </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>85</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>42</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>117</v>
-      </c>
-      <c r="C21">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22">
         <v>94</v>
       </c>
       <c r="C22">
@@ -2069,6 +2122,29 @@
       </c>
       <c r="G22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1921B3-A645-4719-84DC-CA5445C218FC}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2596,6 +2672,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>91</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
